--- a/data_group/plan_max_and_min_group_temp.xlsx
+++ b/data_group/plan_max_and_min_group_temp.xlsx
@@ -2107,7 +2107,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2138,7 +2138,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2231,7 +2231,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2293,7 +2293,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2324,7 +2324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2355,7 +2355,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2386,7 +2386,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2417,7 +2417,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2510,7 +2510,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2603,7 +2603,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2634,7 +2634,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2696,7 +2696,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2727,7 +2727,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2789,7 +2789,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2820,7 +2820,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2851,7 +2851,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2913,7 +2913,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2975,7 +2975,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">

--- a/data_group/plan_max_and_min_group_temp.xlsx
+++ b/data_group/plan_max_and_min_group_temp.xlsx
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>26.77852235570423</v>
+        <v>26.66869921696923</v>
       </c>
       <c r="F2">
-        <v>26.09132665541314</v>
+        <v>26.0186369307136</v>
       </c>
       <c r="G2">
-        <v>25.74145695819503</v>
+        <v>25.65122477677617</v>
       </c>
     </row>
     <row r="3">
@@ -437,13 +437,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>26.48763418469301</v>
+        <v>26.4205952409596</v>
       </c>
       <c r="F3">
-        <v>25.83706966752261</v>
+        <v>25.79351330042228</v>
       </c>
       <c r="G3">
-        <v>25.49755663368125</v>
+        <v>25.45962211999126</v>
       </c>
     </row>
     <row r="4">
@@ -463,13 +463,13 @@
         </is>
       </c>
       <c r="E4">
-        <v>26.32044787685601</v>
+        <v>26.27509830985585</v>
       </c>
       <c r="F4">
-        <v>25.68231517686477</v>
+        <v>25.65394402918245</v>
       </c>
       <c r="G4">
-        <v>25.3242313089261</v>
+        <v>25.30238254858477</v>
       </c>
     </row>
     <row r="5">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>26.21675137314993</v>
+        <v>26.184219138959</v>
       </c>
       <c r="F5">
-        <v>25.59222422562985</v>
+        <v>25.57285531657063</v>
       </c>
       <c r="G5">
-        <v>25.2164231424664</v>
+        <v>25.19868506801091</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>26.13881765388613</v>
+        <v>26.12278218043294</v>
       </c>
       <c r="F6">
-        <v>25.51190867768863</v>
+        <v>25.50480601897121</v>
       </c>
       <c r="G6">
-        <v>25.12852040368664</v>
+        <v>25.12058847097537</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="E12">
-        <v>26.18525650920269</v>
+        <v>25.96064010742852</v>
       </c>
       <c r="F12">
-        <v>25.68554227362625</v>
+        <v>25.51835056746629</v>
       </c>
       <c r="G12">
-        <v>25.25311036328895</v>
+        <v>25.15312588099441</v>
       </c>
     </row>
     <row r="13">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="E13">
-        <v>26.02337863408013</v>
+        <v>25.81847528250476</v>
       </c>
       <c r="F13">
-        <v>25.51800036803444</v>
+        <v>25.34317232990487</v>
       </c>
       <c r="G13">
-        <v>25.0940337176406</v>
+        <v>24.98743119179656</v>
       </c>
     </row>
     <row r="14">
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="E14">
-        <v>25.93468713512139</v>
+        <v>25.76304990904935</v>
       </c>
       <c r="F14">
-        <v>25.44440036171736</v>
+        <v>25.27499695132818</v>
       </c>
       <c r="G14">
-        <v>25.00629342928498</v>
+        <v>24.90492357167711</v>
       </c>
     </row>
     <row r="15">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="E15">
-        <v>25.88426728515731</v>
+        <v>25.75725191974989</v>
       </c>
       <c r="F15">
-        <v>25.39846948742322</v>
+        <v>25.27284291715623</v>
       </c>
       <c r="G15">
-        <v>24.95863932360473</v>
+        <v>24.87031320230342</v>
       </c>
     </row>
     <row r="16">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E16">
-        <v>25.86316644385035</v>
+        <v>25.81101365354535</v>
       </c>
       <c r="F16">
-        <v>25.38463249312688</v>
+        <v>25.33692189622381</v>
       </c>
       <c r="G16">
-        <v>24.94077055757229</v>
+        <v>24.89951559131599</v>
       </c>
     </row>
     <row r="17">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="E22">
-        <v>26.34104741166085</v>
+        <v>25.93370124041603</v>
       </c>
       <c r="F22">
-        <v>25.59893565139345</v>
+        <v>25.27344043310985</v>
       </c>
       <c r="G22">
-        <v>25.07675958384013</v>
+        <v>24.70486317269481</v>
       </c>
     </row>
     <row r="23">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>26.14306181427052</v>
+        <v>25.87675074362753</v>
       </c>
       <c r="F23">
-        <v>25.41172879723177</v>
+        <v>25.19979103550045</v>
       </c>
       <c r="G23">
-        <v>24.84937207121256</v>
+        <v>24.6181594284451</v>
       </c>
     </row>
     <row r="24">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>26.01562547298494</v>
+        <v>25.83598427592667</v>
       </c>
       <c r="F24">
-        <v>25.28929700341324</v>
+        <v>25.1368416587591</v>
       </c>
       <c r="G24">
-        <v>24.68288561109578</v>
+        <v>24.5309510127801</v>
       </c>
     </row>
     <row r="25">
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="E25">
-        <v>25.95016221432108</v>
+        <v>25.80181366196123</v>
       </c>
       <c r="F25">
-        <v>25.23614567846213</v>
+        <v>25.10148416117365</v>
       </c>
       <c r="G25">
-        <v>24.6088031105128</v>
+        <v>24.49625345574602</v>
       </c>
     </row>
     <row r="26">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="E26">
-        <v>26.00751179825884</v>
+        <v>25.92013827628814</v>
       </c>
       <c r="F26">
-        <v>25.29773464866934</v>
+        <v>25.21820476141964</v>
       </c>
       <c r="G26">
-        <v>24.64095364920979</v>
+        <v>24.56905489032319</v>
       </c>
     </row>
     <row r="27">
